--- a/configuration/OrganizationInstructorData.xlsx
+++ b/configuration/OrganizationInstructorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F94CB-0D2A-4CD1-B57A-DE81F9A19324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4A2A8-5EED-49A7-BC39-EA24F0E900A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A5957F6-5931-4280-9199-59A92D938F4D}"/>
+    <workbookView xWindow="30645" yWindow="4185" windowWidth="26955" windowHeight="11295" xr2:uid="{9A5957F6-5931-4280-9199-59A92D938F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>johnnioed@gmail.com</t>
+  </si>
+  <si>
+    <t>testcase6</t>
+  </si>
+  <si>
+    <t>Gonny</t>
+  </si>
+  <si>
+    <t>Noenoe</t>
+  </si>
+  <si>
+    <t>Ghonnioe@gmail.com</t>
+  </si>
+  <si>
+    <t>testcase7</t>
+  </si>
+  <si>
+    <t>Ghownnioe@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -572,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0E26BB-F0D5-4788-95A9-A9F4EC385148}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,6 +1007,136 @@
         <v>41</v>
       </c>
     </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>123456</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>1232340</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>94024</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>123456</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>1232347</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>94024</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1000,6 +1148,10 @@
     <hyperlink ref="P6" r:id="rId6" xr:uid="{1F9DCD30-CA7A-46E7-8C3F-6E5BD35F2107}"/>
     <hyperlink ref="E3:E6" r:id="rId7" display="johnnioe@gmail.com" xr:uid="{253ACBE3-F278-45DA-83A7-7E7CC726407A}"/>
     <hyperlink ref="E6" r:id="rId8" xr:uid="{4BD2A9B2-D610-44C8-B539-119969F67CE1}"/>
+    <hyperlink ref="P7" r:id="rId9" xr:uid="{DEC3709B-711B-4595-85FA-2DDB852815DA}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{E649FCC4-6FD7-4614-8403-EBE63D6B1416}"/>
+    <hyperlink ref="P8" r:id="rId11" xr:uid="{C6A89A55-8813-4746-ACB5-15B1AB5750A1}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{949DF11C-85D2-4D78-A0D6-4E6F898F5523}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/configuration/OrganizationInstructorData.xlsx
+++ b/configuration/OrganizationInstructorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4A2A8-5EED-49A7-BC39-EA24F0E900A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275671D9-FD52-4057-8FFC-AB987F948E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30645" yWindow="4185" windowWidth="26955" windowHeight="11295" xr2:uid="{9A5957F6-5931-4280-9199-59A92D938F4D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Ghownnioe@gmail.com</t>
+  </si>
+  <si>
+    <t>Updated Successfully</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="I2">
-        <v>1232342</v>
+        <v>1065749</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -838,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="I4">
-        <v>1232342</v>
+        <v>1239342</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -968,7 +971,7 @@
         <v>21</v>
       </c>
       <c r="I6">
-        <v>1232342</v>
+        <v>1239342</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -1134,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/configuration/OrganizationInstructorData.xlsx
+++ b/configuration/OrganizationInstructorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_STTS\semester5\soft_test\SoftwareTestingProject\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275671D9-FD52-4057-8FFC-AB987F948E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1422C2-6FF1-43E7-B972-9173AD3CA31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30645" yWindow="4185" windowWidth="26955" windowHeight="11295" xr2:uid="{9A5957F6-5931-4280-9199-59A92D938F4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A5957F6-5931-4280-9199-59A92D938F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
